--- a/assembly/gesc_lcsc.xlsx
+++ b/assembly/gesc_lcsc.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -178,16 +178,16 @@
     <t xml:space="preserve">C408410</t>
   </si>
   <si>
-    <t xml:space="preserve">TPH2R608NH,L1Q</t>
+    <t xml:space="preserve">BSC070N10NS5</t>
   </si>
   <si>
     <t xml:space="preserve">Q1,Q2,Q3,Q4,Q5,Q6</t>
   </si>
   <si>
-    <t xml:space="preserve">SOP-8_EP_5.0x5.0x1.27P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C146377</t>
+    <t xml:space="preserve">PG-TDSON-8_EP_5.2x6.2x1.27P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C151549</t>
   </si>
   <si>
     <t xml:space="preserve">221r</t>
@@ -419,6 +419,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -440,20 +441,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -490,12 +499,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,8 +512,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -520,6 +537,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -530,16 +607,16 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,24 +626,24 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -577,18 +654,19 @@
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -599,10 +677,10 @@
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -613,38 +691,38 @@
       <c r="B6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -655,186 +733,187 @@
       <c r="B9" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -845,158 +924,159 @@
       <c r="B23" s="0" t="s">
         <v>72</v>
       </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1007,60 +1087,61 @@
       <c r="B35" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1076,18 +1157,19 @@
     <hyperlink ref="D14" r:id="rId8" display="C8598"/>
     <hyperlink ref="D15" r:id="rId9" display="C169381"/>
     <hyperlink ref="D16" r:id="rId10" display="C408410"/>
-    <hyperlink ref="D18" r:id="rId11" display="C17557"/>
-    <hyperlink ref="D19" r:id="rId12" display="C17556"/>
-    <hyperlink ref="D20" r:id="rId13" display="C17407"/>
-    <hyperlink ref="D21" r:id="rId14" display="C17415"/>
-    <hyperlink ref="D22" r:id="rId15" display="C17756"/>
-    <hyperlink ref="D24" r:id="rId16" display="C17807"/>
-    <hyperlink ref="D25" r:id="rId17" display="C17477"/>
-    <hyperlink ref="D26" r:id="rId18" display="C17675"/>
-    <hyperlink ref="D27" r:id="rId19" display="C17633"/>
-    <hyperlink ref="D28" r:id="rId20" display="C17530"/>
-    <hyperlink ref="D29" r:id="rId21" display="C17429"/>
-    <hyperlink ref="D30" r:id="rId22" display="C17513"/>
+    <hyperlink ref="D17" r:id="rId11" display="C151549"/>
+    <hyperlink ref="D18" r:id="rId12" display="C17557"/>
+    <hyperlink ref="D19" r:id="rId13" display="C17556"/>
+    <hyperlink ref="D20" r:id="rId14" display="C17407"/>
+    <hyperlink ref="D21" r:id="rId15" display="C17415"/>
+    <hyperlink ref="D22" r:id="rId16" display="C17756"/>
+    <hyperlink ref="D24" r:id="rId17" display="C17807"/>
+    <hyperlink ref="D25" r:id="rId18" display="C17477"/>
+    <hyperlink ref="D26" r:id="rId19" display="C17675"/>
+    <hyperlink ref="D27" r:id="rId20" display="C17633"/>
+    <hyperlink ref="D28" r:id="rId21" display="C17530"/>
+    <hyperlink ref="D29" r:id="rId22" display="C17429"/>
+    <hyperlink ref="D30" r:id="rId23" display="C17513"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
